--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1930.xlsx
@@ -351,7 +351,7 @@
         <v>1.576565941779748</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>2.615693979961922</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1930.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.576565941779748</v>
+        <v>0.5655272006988525</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.4628998339176178</v>
       </c>
       <c r="C1">
-        <v>2.615693979961922</v>
+        <v>4.969462871551514</v>
       </c>
       <c r="D1">
-        <v>1.535327013422573</v>
+        <v>2.825546264648438</v>
       </c>
       <c r="E1">
-        <v>1.20109872983749</v>
+        <v>1.225590229034424</v>
       </c>
     </row>
   </sheetData>
